--- a/biology/Zoologie/Bolitoglossa_yucatana/Bolitoglossa_yucatana.xlsx
+++ b/biology/Zoologie/Bolitoglossa_yucatana/Bolitoglossa_yucatana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa yucatana est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa yucatana est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre dans la péninsule du Yucatán du niveau de la mer à 300 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre dans la péninsule du Yucatán du niveau de la mer à 300 m d'altitude :
 au Mexique dans les États du Yucatán, du Quintana Roo et du Campeche ;
 dans le Nord-Est du Belize.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bolitoglossa yucatana mesure jusqu'à 129 mm dont la moitié pour la queue. Son dos est bleu nuit ou brun foncé avec des nuances de brun, crème ou fauve. Une tache brun foncé est souvent présente entre les yeux. Ses flancs sont généralement brun foncé et passant progressivement au noirâtre ou au fauve sur le ventre. Son ventre est parfois tacheté de blanc[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bolitoglossa yucatana mesure jusqu'à 129 mm dont la moitié pour la queue. Son dos est bleu nuit ou brun foncé avec des nuances de brun, crème ou fauve. Une tache brun foncé est souvent présente entre les yeux. Ses flancs sont généralement brun foncé et passant progressivement au noirâtre ou au fauve sur le ventre. Son ventre est parfois tacheté de blanc.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spelerpes yucatanicus[3] a été placée en synonymie avec Bolitoglossa yucatana par Boulenger en 1883[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spelerpes yucatanicus a été placée en synonymie avec Bolitoglossa yucatana par Boulenger en 1883.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, la péninsule du Yucatán.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Peters, 1882 : Eine neue Art der urodelen Batrachier, Oedipus yucatanus, aus Yucatan (Centralamerica). Sitzungsberichte der Gesellschaft Naturforschender Freunde zu Berlin, vol. 1882, p. 137-138 (texte intégral).</t>
         </is>
